--- a/Guild Digital/Example CHT application/forms/app/mute.xlsx
+++ b/Guild Digital/Example CHT application/forms/app/mute.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" state="visible" r:id="rId2"/>
@@ -335,7 +335,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="d/m/yyyy"/>
   </numFmts>
-  <fonts count="15">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -410,6 +410,12 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
@@ -419,21 +425,6 @@
       <color rgb="FF333333"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
       <charset val="1"/>
     </font>
   </fonts>
@@ -503,7 +494,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="24">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -556,7 +547,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -580,11 +575,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -592,15 +587,7 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -688,18 +675,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:Z1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="C1" activeCellId="0" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G18" activeCellId="0" sqref="1:1048576"/>
+      <selection pane="bottomRight" activeCell="G18" activeCellId="0" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.87890625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1207,20 +1194,20 @@
       <c r="B14" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C14" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
       <c r="F14" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="G14" s="12"/>
-      <c r="H14" s="12"/>
-      <c r="I14" s="12"/>
-      <c r="J14" s="12"/>
-      <c r="K14" s="12"/>
-      <c r="L14" s="12"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="13"/>
+      <c r="I14" s="13"/>
+      <c r="J14" s="13"/>
+      <c r="K14" s="13"/>
+      <c r="L14" s="13"/>
       <c r="M14" s="3"/>
       <c r="N14" s="3"/>
       <c r="O14" s="3"/>
@@ -1246,23 +1233,23 @@
       <c r="C15" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="D15" s="13" t="s">
+      <c r="D15" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="E15" s="12"/>
+      <c r="E15" s="13"/>
       <c r="F15" s="10" t="s">
         <v>47</v>
       </c>
       <c r="G15" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="H15" s="12" t="s">
+      <c r="H15" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="I15" s="12"/>
-      <c r="J15" s="12"/>
-      <c r="K15" s="12"/>
-      <c r="L15" s="12"/>
+      <c r="I15" s="13"/>
+      <c r="J15" s="13"/>
+      <c r="K15" s="13"/>
+      <c r="L15" s="13"/>
       <c r="M15" s="3"/>
       <c r="N15" s="3"/>
       <c r="O15" s="3"/>
@@ -1285,10 +1272,10 @@
       <c r="B16" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="C16" s="14" t="s">
+      <c r="C16" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="D16" s="13" t="s">
+      <c r="D16" s="14" t="s">
         <v>28</v>
       </c>
       <c r="E16" s="4" t="s">
@@ -1298,11 +1285,11 @@
         <v>47</v>
       </c>
       <c r="G16" s="3"/>
-      <c r="H16" s="12"/>
-      <c r="I16" s="12"/>
-      <c r="J16" s="12"/>
-      <c r="K16" s="12"/>
-      <c r="L16" s="12"/>
+      <c r="H16" s="13"/>
+      <c r="I16" s="13"/>
+      <c r="J16" s="13"/>
+      <c r="K16" s="13"/>
+      <c r="L16" s="13"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
@@ -1322,17 +1309,17 @@
       <c r="A17" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="B17" s="12"/>
-      <c r="C17" s="12"/>
-      <c r="D17" s="12"/>
-      <c r="E17" s="12"/>
-      <c r="F17" s="12"/>
-      <c r="G17" s="12"/>
-      <c r="H17" s="12"/>
-      <c r="I17" s="12"/>
-      <c r="J17" s="12"/>
-      <c r="K17" s="12"/>
-      <c r="L17" s="12"/>
+      <c r="B17" s="13"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="13"/>
+      <c r="I17" s="13"/>
+      <c r="J17" s="13"/>
+      <c r="K17" s="13"/>
+      <c r="L17" s="13"/>
       <c r="M17" s="3"/>
       <c r="N17" s="3"/>
       <c r="O17" s="3"/>
@@ -1363,40 +1350,40 @@
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="15" t="s">
+      <c r="A19" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="B19" s="15" t="s">
+      <c r="B19" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="C19" s="16" t="s">
+      <c r="C19" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="D19" s="15"/>
-      <c r="E19" s="15"/>
-      <c r="F19" s="15" t="s">
+      <c r="D19" s="16"/>
+      <c r="E19" s="16"/>
+      <c r="F19" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="G19" s="15"/>
-      <c r="H19" s="15"/>
-      <c r="I19" s="15"/>
-      <c r="J19" s="15"/>
-      <c r="K19" s="15"/>
-      <c r="L19" s="15"/>
-      <c r="M19" s="15"/>
-      <c r="N19" s="15"/>
-      <c r="O19" s="15"/>
-      <c r="P19" s="15"/>
-      <c r="Q19" s="15"/>
-      <c r="R19" s="15"/>
-      <c r="S19" s="15"/>
-      <c r="T19" s="15"/>
-      <c r="U19" s="15"/>
-      <c r="V19" s="15"/>
-      <c r="W19" s="15"/>
-      <c r="X19" s="15"/>
-      <c r="Y19" s="15"/>
-      <c r="Z19" s="15"/>
+      <c r="G19" s="16"/>
+      <c r="H19" s="16"/>
+      <c r="I19" s="16"/>
+      <c r="J19" s="16"/>
+      <c r="K19" s="16"/>
+      <c r="L19" s="16"/>
+      <c r="M19" s="16"/>
+      <c r="N19" s="16"/>
+      <c r="O19" s="16"/>
+      <c r="P19" s="16"/>
+      <c r="Q19" s="16"/>
+      <c r="R19" s="16"/>
+      <c r="S19" s="16"/>
+      <c r="T19" s="16"/>
+      <c r="U19" s="16"/>
+      <c r="V19" s="16"/>
+      <c r="W19" s="16"/>
+      <c r="X19" s="16"/>
+      <c r="Y19" s="16"/>
+      <c r="Z19" s="16"/>
     </row>
     <row r="20" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="3" t="s">
@@ -1405,7 +1392,7 @@
       <c r="B20" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="C20" s="14" t="s">
+      <c r="C20" s="15" t="s">
         <v>61</v>
       </c>
       <c r="D20" s="3"/>
@@ -1413,7 +1400,7 @@
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
       <c r="H20" s="3"/>
-      <c r="I20" s="14"/>
+      <c r="I20" s="15"/>
       <c r="J20" s="3"/>
       <c r="K20" s="3"/>
       <c r="L20" s="3"/>
@@ -1439,7 +1426,7 @@
       <c r="B21" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="C21" s="14" t="s">
+      <c r="C21" s="15" t="s">
         <v>63</v>
       </c>
       <c r="D21" s="3"/>
@@ -1449,7 +1436,7 @@
       </c>
       <c r="G21" s="3"/>
       <c r="H21" s="3"/>
-      <c r="I21" s="14"/>
+      <c r="I21" s="15"/>
       <c r="J21" s="3"/>
       <c r="K21" s="3"/>
       <c r="L21" s="3"/>
@@ -1484,7 +1471,7 @@
       <c r="F22" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="I22" s="14"/>
+      <c r="I22" s="15"/>
     </row>
     <row r="23" s="3" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="3" t="s">
@@ -1502,7 +1489,7 @@
       <c r="F23" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="I23" s="14"/>
+      <c r="I23" s="15"/>
     </row>
     <row r="24" s="3" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="3" t="s">
@@ -1520,7 +1507,7 @@
       <c r="F24" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="I24" s="14"/>
+      <c r="I24" s="15"/>
     </row>
     <row r="25" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
@@ -1540,40 +1527,40 @@
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="17" t="s">
+      <c r="A26" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="B26" s="17" t="s">
+      <c r="B26" s="18" t="s">
         <v>78</v>
       </c>
-      <c r="C26" s="18" t="s">
+      <c r="C26" s="19" t="s">
         <v>79</v>
       </c>
-      <c r="D26" s="17"/>
-      <c r="E26" s="17"/>
-      <c r="F26" s="17" t="s">
+      <c r="D26" s="18"/>
+      <c r="E26" s="18"/>
+      <c r="F26" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="G26" s="17"/>
-      <c r="H26" s="17"/>
-      <c r="I26" s="17"/>
-      <c r="J26" s="17"/>
-      <c r="K26" s="17"/>
-      <c r="L26" s="17"/>
-      <c r="M26" s="17"/>
-      <c r="N26" s="17"/>
-      <c r="O26" s="17"/>
-      <c r="P26" s="17"/>
-      <c r="Q26" s="17"/>
-      <c r="R26" s="17"/>
-      <c r="S26" s="17"/>
-      <c r="T26" s="17"/>
-      <c r="U26" s="17"/>
-      <c r="V26" s="17"/>
-      <c r="W26" s="17"/>
-      <c r="X26" s="17"/>
-      <c r="Y26" s="17"/>
-      <c r="Z26" s="17"/>
+      <c r="G26" s="18"/>
+      <c r="H26" s="18"/>
+      <c r="I26" s="18"/>
+      <c r="J26" s="18"/>
+      <c r="K26" s="18"/>
+      <c r="L26" s="18"/>
+      <c r="M26" s="18"/>
+      <c r="N26" s="18"/>
+      <c r="O26" s="18"/>
+      <c r="P26" s="18"/>
+      <c r="Q26" s="18"/>
+      <c r="R26" s="18"/>
+      <c r="S26" s="18"/>
+      <c r="T26" s="18"/>
+      <c r="U26" s="18"/>
+      <c r="V26" s="18"/>
+      <c r="W26" s="18"/>
+      <c r="X26" s="18"/>
+      <c r="Y26" s="18"/>
+      <c r="Z26" s="18"/>
     </row>
     <row r="27" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="3" t="s">
@@ -1582,7 +1569,7 @@
       <c r="B27" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="C27" s="14" t="s">
+      <c r="C27" s="15" t="s">
         <v>82</v>
       </c>
       <c r="D27" s="3"/>
@@ -1590,7 +1577,7 @@
       <c r="F27" s="3"/>
       <c r="G27" s="3"/>
       <c r="H27" s="3"/>
-      <c r="I27" s="14"/>
+      <c r="I27" s="15"/>
       <c r="J27" s="3"/>
       <c r="K27" s="3"/>
       <c r="L27" s="3"/>
@@ -1617,7 +1604,7 @@
     <row r="29" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
-      <c r="C29" s="14"/>
+      <c r="C29" s="15"/>
       <c r="D29" s="3"/>
       <c r="E29" s="3"/>
       <c r="F29" s="3"/>
@@ -1645,7 +1632,7 @@
     <row r="30" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="3"/>
       <c r="B30" s="3"/>
-      <c r="C30" s="14"/>
+      <c r="C30" s="15"/>
       <c r="D30" s="3"/>
       <c r="E30" s="3"/>
       <c r="F30" s="3"/>
@@ -1673,7 +1660,7 @@
     <row r="31" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="3"/>
       <c r="B31" s="3"/>
-      <c r="C31" s="14"/>
+      <c r="C31" s="15"/>
       <c r="D31" s="3"/>
       <c r="E31" s="3"/>
       <c r="F31" s="3"/>
@@ -1701,7 +1688,7 @@
     <row r="32" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="3"/>
       <c r="B32" s="3"/>
-      <c r="C32" s="14"/>
+      <c r="C32" s="15"/>
       <c r="D32" s="3"/>
       <c r="E32" s="3"/>
       <c r="F32" s="3"/>
@@ -1729,7 +1716,7 @@
     <row r="33" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="3"/>
       <c r="B33" s="3"/>
-      <c r="C33" s="14"/>
+      <c r="C33" s="15"/>
       <c r="D33" s="3"/>
       <c r="E33" s="3"/>
       <c r="F33" s="3"/>
@@ -1757,7 +1744,7 @@
     <row r="34" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="3"/>
       <c r="B34" s="3"/>
-      <c r="C34" s="14"/>
+      <c r="C34" s="15"/>
       <c r="D34" s="3"/>
       <c r="E34" s="3"/>
       <c r="F34" s="3"/>
@@ -1785,7 +1772,7 @@
     <row r="35" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="3"/>
       <c r="B35" s="3"/>
-      <c r="C35" s="14"/>
+      <c r="C35" s="15"/>
       <c r="D35" s="3"/>
       <c r="E35" s="3"/>
       <c r="F35" s="3"/>
@@ -1813,7 +1800,7 @@
     <row r="36" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="3"/>
       <c r="B36" s="3"/>
-      <c r="C36" s="14"/>
+      <c r="C36" s="15"/>
       <c r="D36" s="3"/>
       <c r="E36" s="3"/>
       <c r="F36" s="3"/>
@@ -1841,7 +1828,7 @@
     <row r="37" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="3"/>
       <c r="B37" s="3"/>
-      <c r="C37" s="14"/>
+      <c r="C37" s="15"/>
       <c r="D37" s="3"/>
       <c r="E37" s="3"/>
       <c r="F37" s="3"/>
@@ -1869,7 +1856,7 @@
     <row r="38" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="3"/>
       <c r="B38" s="3"/>
-      <c r="C38" s="14"/>
+      <c r="C38" s="15"/>
       <c r="D38" s="3"/>
       <c r="E38" s="3"/>
       <c r="F38" s="3"/>
@@ -1897,7 +1884,7 @@
     <row r="39" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="3"/>
       <c r="B39" s="3"/>
-      <c r="C39" s="14"/>
+      <c r="C39" s="15"/>
       <c r="D39" s="3"/>
       <c r="E39" s="3"/>
       <c r="F39" s="3"/>
@@ -1923,15 +1910,15 @@
       <c r="Z39" s="3"/>
     </row>
     <row r="40" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A40" s="12"/>
-      <c r="B40" s="12"/>
-      <c r="C40" s="12"/>
-      <c r="D40" s="12"/>
-      <c r="E40" s="12"/>
-      <c r="F40" s="12"/>
-      <c r="G40" s="12"/>
-      <c r="H40" s="12"/>
-      <c r="I40" s="12"/>
+      <c r="A40" s="13"/>
+      <c r="B40" s="13"/>
+      <c r="C40" s="13"/>
+      <c r="D40" s="13"/>
+      <c r="E40" s="13"/>
+      <c r="F40" s="13"/>
+      <c r="G40" s="13"/>
+      <c r="H40" s="13"/>
+      <c r="I40" s="13"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
@@ -1951,15 +1938,15 @@
       <c r="Z40" s="3"/>
     </row>
     <row r="41" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A41" s="19"/>
-      <c r="B41" s="12"/>
-      <c r="C41" s="12"/>
-      <c r="D41" s="12"/>
-      <c r="E41" s="12"/>
-      <c r="F41" s="12"/>
-      <c r="G41" s="12"/>
-      <c r="H41" s="12"/>
-      <c r="I41" s="12"/>
+      <c r="A41" s="20"/>
+      <c r="B41" s="13"/>
+      <c r="C41" s="13"/>
+      <c r="D41" s="13"/>
+      <c r="E41" s="13"/>
+      <c r="F41" s="13"/>
+      <c r="G41" s="13"/>
+      <c r="H41" s="13"/>
+      <c r="I41" s="13"/>
       <c r="J41" s="3"/>
       <c r="K41" s="3"/>
       <c r="L41" s="3"/>
@@ -1979,15 +1966,15 @@
       <c r="Z41" s="3"/>
     </row>
     <row r="42" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A42" s="19"/>
-      <c r="B42" s="12"/>
-      <c r="C42" s="12"/>
-      <c r="D42" s="12"/>
-      <c r="E42" s="12"/>
-      <c r="F42" s="12"/>
-      <c r="G42" s="12"/>
-      <c r="H42" s="12"/>
-      <c r="I42" s="12"/>
+      <c r="A42" s="20"/>
+      <c r="B42" s="13"/>
+      <c r="C42" s="13"/>
+      <c r="D42" s="13"/>
+      <c r="E42" s="13"/>
+      <c r="F42" s="13"/>
+      <c r="G42" s="13"/>
+      <c r="H42" s="13"/>
+      <c r="I42" s="13"/>
       <c r="J42" s="3"/>
       <c r="K42" s="3"/>
       <c r="L42" s="3"/>
@@ -2007,15 +1994,15 @@
       <c r="Z42" s="3"/>
     </row>
     <row r="43" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A43" s="12"/>
-      <c r="B43" s="12"/>
-      <c r="C43" s="12"/>
-      <c r="D43" s="12"/>
-      <c r="E43" s="12"/>
-      <c r="F43" s="12"/>
-      <c r="G43" s="12"/>
-      <c r="H43" s="12"/>
-      <c r="I43" s="12"/>
+      <c r="A43" s="13"/>
+      <c r="B43" s="13"/>
+      <c r="C43" s="13"/>
+      <c r="D43" s="13"/>
+      <c r="E43" s="13"/>
+      <c r="F43" s="13"/>
+      <c r="G43" s="13"/>
+      <c r="H43" s="13"/>
+      <c r="I43" s="13"/>
       <c r="J43" s="3"/>
       <c r="K43" s="3"/>
       <c r="L43" s="3"/>
@@ -2035,15 +2022,15 @@
       <c r="Z43" s="3"/>
     </row>
     <row r="44" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A44" s="12"/>
-      <c r="B44" s="12"/>
-      <c r="C44" s="12"/>
-      <c r="D44" s="12"/>
-      <c r="E44" s="12"/>
-      <c r="F44" s="12"/>
-      <c r="G44" s="12"/>
-      <c r="H44" s="12"/>
-      <c r="I44" s="12"/>
+      <c r="A44" s="13"/>
+      <c r="B44" s="13"/>
+      <c r="C44" s="13"/>
+      <c r="D44" s="13"/>
+      <c r="E44" s="13"/>
+      <c r="F44" s="13"/>
+      <c r="G44" s="13"/>
+      <c r="H44" s="13"/>
+      <c r="I44" s="13"/>
       <c r="J44" s="3"/>
       <c r="K44" s="3"/>
       <c r="L44" s="3"/>
@@ -2063,15 +2050,15 @@
       <c r="Z44" s="3"/>
     </row>
     <row r="45" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A45" s="12"/>
-      <c r="B45" s="12"/>
-      <c r="C45" s="12"/>
-      <c r="D45" s="12"/>
-      <c r="E45" s="12"/>
-      <c r="F45" s="12"/>
-      <c r="G45" s="12"/>
-      <c r="H45" s="12"/>
-      <c r="I45" s="12"/>
+      <c r="A45" s="13"/>
+      <c r="B45" s="13"/>
+      <c r="C45" s="13"/>
+      <c r="D45" s="13"/>
+      <c r="E45" s="13"/>
+      <c r="F45" s="13"/>
+      <c r="G45" s="13"/>
+      <c r="H45" s="13"/>
+      <c r="I45" s="13"/>
       <c r="J45" s="3"/>
       <c r="K45" s="3"/>
       <c r="L45" s="3"/>
@@ -2091,15 +2078,15 @@
       <c r="Z45" s="3"/>
     </row>
     <row r="46" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A46" s="12"/>
-      <c r="B46" s="12"/>
-      <c r="C46" s="12"/>
-      <c r="D46" s="12"/>
-      <c r="E46" s="12"/>
-      <c r="F46" s="12"/>
-      <c r="G46" s="12"/>
-      <c r="H46" s="12"/>
-      <c r="I46" s="12"/>
+      <c r="A46" s="13"/>
+      <c r="B46" s="13"/>
+      <c r="C46" s="13"/>
+      <c r="D46" s="13"/>
+      <c r="E46" s="13"/>
+      <c r="F46" s="13"/>
+      <c r="G46" s="13"/>
+      <c r="H46" s="13"/>
+      <c r="I46" s="13"/>
       <c r="J46" s="3"/>
       <c r="K46" s="3"/>
       <c r="L46" s="3"/>
@@ -2120,8 +2107,8 @@
     </row>
     <row r="47" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="3"/>
-      <c r="B47" s="20"/>
-      <c r="C47" s="14"/>
+      <c r="B47" s="21"/>
+      <c r="C47" s="15"/>
       <c r="D47" s="3"/>
       <c r="E47" s="3"/>
       <c r="F47" s="3"/>
@@ -2148,8 +2135,8 @@
     </row>
     <row r="48" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="3"/>
-      <c r="B48" s="20"/>
-      <c r="C48" s="14"/>
+      <c r="B48" s="21"/>
+      <c r="C48" s="15"/>
       <c r="D48" s="3"/>
       <c r="E48" s="3"/>
       <c r="F48" s="3"/>
@@ -2176,10 +2163,10 @@
     </row>
     <row r="49" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A49" s="3"/>
-      <c r="B49" s="20"/>
-      <c r="C49" s="14"/>
+      <c r="B49" s="21"/>
+      <c r="C49" s="15"/>
       <c r="D49" s="3"/>
-      <c r="E49" s="20"/>
+      <c r="E49" s="21"/>
       <c r="F49" s="3"/>
       <c r="G49" s="3"/>
       <c r="H49" s="3"/>
@@ -2205,9 +2192,9 @@
     <row r="50" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A50" s="3"/>
       <c r="B50" s="3"/>
-      <c r="C50" s="14"/>
+      <c r="C50" s="15"/>
       <c r="D50" s="3"/>
-      <c r="E50" s="20"/>
+      <c r="E50" s="21"/>
       <c r="F50" s="3"/>
       <c r="G50" s="3"/>
       <c r="H50" s="3"/>
@@ -2233,9 +2220,9 @@
     <row r="51" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A51" s="3"/>
       <c r="B51" s="3"/>
-      <c r="C51" s="14"/>
+      <c r="C51" s="15"/>
       <c r="D51" s="3"/>
-      <c r="E51" s="20"/>
+      <c r="E51" s="21"/>
       <c r="F51" s="3"/>
       <c r="G51" s="3"/>
       <c r="H51" s="3"/>
@@ -2260,10 +2247,10 @@
     </row>
     <row r="52" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A52" s="3"/>
-      <c r="B52" s="20"/>
-      <c r="C52" s="14"/>
+      <c r="B52" s="21"/>
+      <c r="C52" s="15"/>
       <c r="D52" s="3"/>
-      <c r="E52" s="20"/>
+      <c r="E52" s="21"/>
       <c r="F52" s="3"/>
       <c r="G52" s="3"/>
       <c r="H52" s="3"/>
@@ -2289,9 +2276,9 @@
     <row r="53" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A53" s="3"/>
       <c r="B53" s="3"/>
-      <c r="C53" s="14"/>
+      <c r="C53" s="15"/>
       <c r="D53" s="3"/>
-      <c r="E53" s="20"/>
+      <c r="E53" s="21"/>
       <c r="F53" s="3"/>
       <c r="G53" s="3"/>
       <c r="H53" s="3"/>
@@ -2317,9 +2304,9 @@
     <row r="54" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A54" s="3"/>
       <c r="B54" s="3"/>
-      <c r="C54" s="14"/>
+      <c r="C54" s="15"/>
       <c r="D54" s="3"/>
-      <c r="E54" s="20"/>
+      <c r="E54" s="21"/>
       <c r="F54" s="3"/>
       <c r="G54" s="3"/>
       <c r="H54" s="3"/>
@@ -2345,9 +2332,9 @@
     <row r="55" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A55" s="3"/>
       <c r="B55" s="3"/>
-      <c r="C55" s="14"/>
+      <c r="C55" s="15"/>
       <c r="D55" s="3"/>
-      <c r="E55" s="20"/>
+      <c r="E55" s="21"/>
       <c r="F55" s="3"/>
       <c r="G55" s="3"/>
       <c r="H55" s="3"/>
@@ -2373,13 +2360,13 @@
     <row r="56" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A56" s="3"/>
       <c r="B56" s="3"/>
-      <c r="C56" s="14"/>
+      <c r="C56" s="15"/>
       <c r="D56" s="3"/>
       <c r="E56" s="3"/>
       <c r="F56" s="3"/>
       <c r="G56" s="3"/>
       <c r="H56" s="3"/>
-      <c r="I56" s="20"/>
+      <c r="I56" s="21"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
@@ -2401,7 +2388,7 @@
     <row r="57" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A57" s="3"/>
       <c r="B57" s="3"/>
-      <c r="C57" s="14"/>
+      <c r="C57" s="15"/>
       <c r="D57" s="3"/>
       <c r="E57" s="3"/>
       <c r="F57" s="3"/>
@@ -2429,7 +2416,7 @@
     <row r="58" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A58" s="3"/>
       <c r="B58" s="3"/>
-      <c r="C58" s="14"/>
+      <c r="C58" s="15"/>
       <c r="D58" s="3"/>
       <c r="E58" s="3"/>
       <c r="F58" s="3"/>
@@ -2457,7 +2444,7 @@
     <row r="59" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A59" s="3"/>
       <c r="B59" s="3"/>
-      <c r="C59" s="14"/>
+      <c r="C59" s="15"/>
       <c r="D59" s="3"/>
       <c r="E59" s="3"/>
       <c r="F59" s="3"/>
@@ -2485,7 +2472,7 @@
     <row r="60" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A60" s="3"/>
       <c r="B60" s="3"/>
-      <c r="C60" s="14"/>
+      <c r="C60" s="15"/>
       <c r="D60" s="3"/>
       <c r="E60" s="3"/>
       <c r="F60" s="3"/>
@@ -2513,7 +2500,7 @@
     <row r="61" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A61" s="3"/>
       <c r="B61" s="3"/>
-      <c r="C61" s="14"/>
+      <c r="C61" s="15"/>
       <c r="D61" s="3"/>
       <c r="E61" s="3"/>
       <c r="F61" s="3"/>
@@ -2541,7 +2528,7 @@
     <row r="62" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A62" s="3"/>
       <c r="B62" s="3"/>
-      <c r="C62" s="14"/>
+      <c r="C62" s="15"/>
       <c r="D62" s="3"/>
       <c r="E62" s="3"/>
       <c r="F62" s="3"/>
@@ -2569,7 +2556,7 @@
     <row r="63" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A63" s="3"/>
       <c r="B63" s="3"/>
-      <c r="C63" s="14"/>
+      <c r="C63" s="15"/>
       <c r="D63" s="3"/>
       <c r="E63" s="3"/>
       <c r="F63" s="3"/>
@@ -2597,7 +2584,7 @@
     <row r="64" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A64" s="3"/>
       <c r="B64" s="3"/>
-      <c r="C64" s="14"/>
+      <c r="C64" s="15"/>
       <c r="D64" s="3"/>
       <c r="E64" s="3"/>
       <c r="F64" s="3"/>
@@ -2625,9 +2612,9 @@
     <row r="65" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A65" s="3"/>
       <c r="B65" s="3"/>
-      <c r="C65" s="14"/>
+      <c r="C65" s="15"/>
       <c r="D65" s="3"/>
-      <c r="E65" s="20"/>
+      <c r="E65" s="21"/>
       <c r="F65" s="3"/>
       <c r="G65" s="3"/>
       <c r="H65" s="3"/>
@@ -2653,9 +2640,9 @@
     <row r="66" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A66" s="3"/>
       <c r="B66" s="3"/>
-      <c r="C66" s="14"/>
+      <c r="C66" s="15"/>
       <c r="D66" s="3"/>
-      <c r="E66" s="20"/>
+      <c r="E66" s="21"/>
       <c r="F66" s="3"/>
       <c r="G66" s="3"/>
       <c r="H66" s="3"/>
@@ -2681,9 +2668,9 @@
     <row r="67" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A67" s="3"/>
       <c r="B67" s="3"/>
-      <c r="C67" s="14"/>
+      <c r="C67" s="15"/>
       <c r="D67" s="3"/>
-      <c r="E67" s="20"/>
+      <c r="E67" s="21"/>
       <c r="F67" s="3"/>
       <c r="G67" s="3"/>
       <c r="H67" s="3"/>
@@ -2709,9 +2696,9 @@
     <row r="68" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A68" s="3"/>
       <c r="B68" s="3"/>
-      <c r="C68" s="14"/>
+      <c r="C68" s="15"/>
       <c r="D68" s="3"/>
-      <c r="E68" s="20"/>
+      <c r="E68" s="21"/>
       <c r="F68" s="3"/>
       <c r="G68" s="3"/>
       <c r="H68" s="3"/>
@@ -2737,9 +2724,9 @@
     <row r="69" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A69" s="3"/>
       <c r="B69" s="3"/>
-      <c r="C69" s="14"/>
+      <c r="C69" s="15"/>
       <c r="D69" s="3"/>
-      <c r="E69" s="20"/>
+      <c r="E69" s="21"/>
       <c r="F69" s="3"/>
       <c r="G69" s="3"/>
       <c r="H69" s="3"/>
@@ -2765,9 +2752,9 @@
     <row r="70" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A70" s="3"/>
       <c r="B70" s="3"/>
-      <c r="C70" s="14"/>
+      <c r="C70" s="15"/>
       <c r="D70" s="3"/>
-      <c r="E70" s="20"/>
+      <c r="E70" s="21"/>
       <c r="F70" s="3"/>
       <c r="G70" s="3"/>
       <c r="H70" s="3"/>
@@ -2793,9 +2780,9 @@
     <row r="71" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A71" s="3"/>
       <c r="B71" s="3"/>
-      <c r="C71" s="14"/>
+      <c r="C71" s="15"/>
       <c r="D71" s="3"/>
-      <c r="E71" s="20"/>
+      <c r="E71" s="21"/>
       <c r="F71" s="3"/>
       <c r="G71" s="3"/>
       <c r="H71" s="3"/>
@@ -2821,9 +2808,9 @@
     <row r="72" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A72" s="3"/>
       <c r="B72" s="3"/>
-      <c r="C72" s="13"/>
+      <c r="C72" s="14"/>
       <c r="D72" s="3"/>
-      <c r="E72" s="20"/>
+      <c r="E72" s="21"/>
       <c r="F72" s="3"/>
       <c r="G72" s="3"/>
       <c r="H72" s="3"/>
@@ -2849,9 +2836,9 @@
     <row r="73" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A73" s="3"/>
       <c r="B73" s="3"/>
-      <c r="C73" s="20"/>
+      <c r="C73" s="21"/>
       <c r="D73" s="3"/>
-      <c r="E73" s="20"/>
+      <c r="E73" s="21"/>
       <c r="F73" s="3"/>
       <c r="G73" s="3"/>
       <c r="H73" s="3"/>
@@ -2999,17 +2986,17 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:Z1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="1:1048576"/>
+      <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.265625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="15.2578125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.62"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="21.28"/>
@@ -3019,13 +3006,13 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="22" t="s">
         <v>83</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="22" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="3"/>
@@ -3059,7 +3046,7 @@
       <c r="B2" s="0" t="s">
         <v>85</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="15" t="s">
         <v>66</v>
       </c>
     </row>
@@ -3070,7 +3057,7 @@
       <c r="B3" s="0" t="s">
         <v>86</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="15" t="s">
         <v>70</v>
       </c>
     </row>
@@ -3081,7 +3068,7 @@
       <c r="B4" s="0" t="s">
         <v>87</v>
       </c>
-      <c r="C4" s="14" t="s">
+      <c r="C4" s="15" t="s">
         <v>88</v>
       </c>
     </row>
@@ -3092,7 +3079,7 @@
       <c r="B5" s="0" t="s">
         <v>89</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="C5" s="15" t="s">
         <v>90</v>
       </c>
     </row>
@@ -3128,65 +3115,104 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F1048576"/>
+  <dimension ref="A1:Z1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="1:1048576"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B15" activeCellId="0" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.87890625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="22" width="17.46"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="22" width="10.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="22" width="10.06"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="22" width="7.51"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="22" width="18.21"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="7" style="22" width="3.75"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="17" style="22" width="13.39"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="27" style="22" width="15.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.46"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="10.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="10.06"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="0" width="7.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="18.21"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="7" style="0" width="3.75"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="17" style="0" width="13.39"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="C1" s="23" t="s">
+      <c r="C1" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="D1" s="23" t="s">
+      <c r="D1" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="E1" s="23" t="s">
+      <c r="E1" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="F1" s="23" t="s">
+      <c r="F1" s="1" t="s">
         <v>96</v>
       </c>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3"/>
+      <c r="R1" s="3"/>
+      <c r="S1" s="3"/>
+      <c r="T1" s="3"/>
+      <c r="U1" s="3"/>
+      <c r="V1" s="3"/>
+      <c r="W1" s="3"/>
+      <c r="X1" s="3"/>
+      <c r="Y1" s="3"/>
+      <c r="Z1" s="3"/>
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="C2" s="24" t="str">
-        <f aca="true">TEXT(NOW(), "yyyy-mm-dd_HH-MM")</f>
-        <v>2023-09-19  21-50</v>
-      </c>
-      <c r="D2" s="22" t="s">
+      <c r="C2" s="23" t="n">
+        <v>43842</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="E2" s="22" t="s">
+      <c r="E2" s="3" t="s">
         <v>100</v>
       </c>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+      <c r="O2" s="3"/>
+      <c r="P2" s="3"/>
+      <c r="Q2" s="3"/>
+      <c r="R2" s="3"/>
+      <c r="S2" s="3"/>
+      <c r="T2" s="3"/>
+      <c r="U2" s="3"/>
+      <c r="V2" s="3"/>
+      <c r="W2" s="3"/>
+      <c r="X2" s="3"/>
+      <c r="Y2" s="3"/>
+      <c r="Z2" s="3"/>
     </row>
     <row r="24" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1048576" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
